--- a/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T00:45:03+00:00</t>
+    <t>2022-11-02T02:53:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T02:53:28+00:00</t>
+    <t>2022-11-02T03:15:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T03:15:08+00:00</t>
+    <t>2022-11-02T03:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T03:44:28+00:00</t>
+    <t>2022-11-02T04:11:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T04:11:18+00:00</t>
+    <t>2022-11-02T05:42:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T05:42:06+00:00</t>
+    <t>2022-11-02T06:00:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:00:44+00:00</t>
+    <t>2022-11-02T06:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:25:53+00:00</t>
+    <t>2022-11-02T06:46:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T08:47:59+00:00</t>
+    <t>2022-11-12T09:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
